--- a/wwwroot/templates/excel/measurement_template.xlsx
+++ b/wwwroot/templates/excel/measurement_template.xlsx
@@ -8,10 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="2. Dimension DC" sheetId="1" r:id="rId1"/>
+    <sheet name="4. Dimension CNC" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_\23456789090" hidden="1">{"'0808_월별 (2)'!$A$2:$T$28"}</definedName>
@@ -201,6 +204,74 @@
     <definedName name="임" hidden="1">0</definedName>
     <definedName name="ㅈㅂㄱ" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="편집" hidden="1">{"'0808_월별 (2)'!$A$2:$T$28"}</definedName>
+    <definedName name="__\23456789090" localSheetId="1" hidden="1">{"'0808_월별 (2)'!$A$2:$T$28"}</definedName>
+    <definedName name="___\23456789090" hidden="1">{"'0808_월별 (2)'!$A$2:$T$28"}</definedName>
+    <definedName name="______________H922" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="______________H930" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="______________HGP1010" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="____________H922" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="____________H930" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="____________HGP1010" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="___________H922" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="___________H930" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="___________HGP1010" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="_________H922" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="_________H930" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="_________HGP1010" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="________H922" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="________H930" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="________HGP1010" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="_______H922" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="_______H930" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="_______HGP1010" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="______H922" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="______H930" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="______HGP1010" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="_____H922" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="_____H930" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="_____HGP1010" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="____H922" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="____H930" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="____HGP1010" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="___HGP1010" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="__H922" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="__H930" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="__HGP1010" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="_188H922_" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="_196H930_" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="_1HR400_" localSheetId="1" hidden="1">{"'0808_월별 (2)'!$A$2:$T$28"}</definedName>
+    <definedName name="_2__123Graph_ACHART_1" localSheetId="1" hidden="1">'[3]Shear Graph'!$B$25:$B$34</definedName>
+    <definedName name="_4__123Graph_ACHART_4" localSheetId="1" hidden="1">[3]Recovery!$C$5:$C$16</definedName>
+    <definedName name="_5__123Graph_ACHART_5" localSheetId="1" hidden="1">[3]Recovery!$E$5:$E$16</definedName>
+    <definedName name="_6__123Graph_BCHART_1" localSheetId="1" hidden="1">'[3]Shear Graph'!$AD$25:$AD$36</definedName>
+    <definedName name="_8__123Graph_CCHART_1" localSheetId="1" hidden="1">'[3]Shear Graph'!$D$25:$D$34</definedName>
+    <definedName name="_Dist_Bin" localSheetId="1" hidden="1">[2]ppk!#REF!</definedName>
+    <definedName name="_Fill" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="_H922" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="_H930" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="_HGP1010" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="asac" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="CHANGER" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="company_요약" localSheetId="1" hidden="1">{"'0808_월별 (2)'!$A$2:$T$28"}</definedName>
+    <definedName name="DSDS" localSheetId="1" hidden="1">{"'0808_월별 (2)'!$A$2:$T$28"}</definedName>
+    <definedName name="DV392X" localSheetId="1" hidden="1">{"'0808_월별 (2)'!$A$2:$T$28"}</definedName>
+    <definedName name="edf" localSheetId="1" hidden="1">{"'0808_월별 (2)'!$A$2:$T$28"}</definedName>
+    <definedName name="FDGS" localSheetId="1" hidden="1">{"'KET'!$A$1:$E$2423"}</definedName>
+    <definedName name="fhgj" localSheetId="1" hidden="1">{"'0808_월별 (2)'!$A$2:$T$28"}</definedName>
+    <definedName name="gè" localSheetId="1" hidden="1">{"'0808_월별 (2)'!$A$2:$T$28"}</definedName>
+    <definedName name="HGC" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="HTML_Control" localSheetId="1" hidden="1">{"'7-2지역별'!$A$1:$R$44"}</definedName>
+    <definedName name="o" localSheetId="1" hidden="1">[2]ppk!#REF!</definedName>
+    <definedName name="s" localSheetId="1" hidden="1">{"'0808_월별 (2)'!$A$2:$T$28"}</definedName>
+    <definedName name="sdfdhgh" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="UUYYT" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="김승미" localSheetId="1" hidden="1">{"'0808_월별 (2)'!$A$2:$T$28"}</definedName>
+    <definedName name="김현호" localSheetId="1" hidden="1">{"'0808_월별 (2)'!$A$2:$T$28"}</definedName>
+    <definedName name="내광성5" localSheetId="1" hidden="1">{"'Sheet1'!$A$1:$H$36"}</definedName>
+    <definedName name="신규1" localSheetId="1" hidden="1">{"'0808_월별 (2)'!$A$2:$T$28"}</definedName>
+    <definedName name="이정희" localSheetId="1" hidden="1">{"'0808_월별 (2)'!$A$2:$T$28"}</definedName>
+    <definedName name="ㅈㅂㄱ" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="편집" localSheetId="1" hidden="1">{"'0808_월별 (2)'!$A$2:$T$28"}</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -220,7 +291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Halla Electronics Vina</t>
   </si>
@@ -322,6 +393,49 @@
   <si>
     <t>Ghi chú:</t>
   </si>
+  <si>
+    <t>Part name :</t>
+  </si>
+  <si>
+    <t>Part no :</t>
+  </si>
+  <si>
+    <t>Date production (ngày sản xuất) :</t>
+  </si>
+  <si>
+    <t>WO (mã số sản xuất) :</t>
+  </si>
+  <si>
+    <t>Process (công đoạn): CNC</t>
+  </si>
+  <si>
+    <t>Machine (máy):</t>
+  </si>
+  <si>
+    <t>Mold (khuôn):</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>Remarrk</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>LG Request</t>
+  </si>
+  <si>
+    <t>Halla internal</t>
+  </si>
+  <si>
+    <t>Ghi chú:    Kích thước 29.5 (Khoảng cách từ 6 lỗ M8 đến trục CTQ)
+                Kích thước 54 (Khoảng các từ lỗ M4 đến trục CTQ)</t>
+  </si>
 </sst>
 </file>
 
@@ -334,11 +448,59 @@
     <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -539,8 +701,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,6 +719,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,7 +915,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -749,11 +924,76 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -761,19 +1001,25 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -785,101 +1031,14 @@
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
@@ -890,101 +1049,15 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -998,6 +1071,56 @@
     </border>
     <border>
       <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
@@ -1012,6 +1135,209 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1180,405 +1506,574 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="51" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="51" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="51" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="18" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="13" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="2" borderId="18" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="18" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="13" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="13" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="52">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1630,6 +2125,7 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
     <cellStyle name="Normal 4" xfId="49"/>
     <cellStyle name="표준_인정시험결과서" xfId="50"/>
+    <cellStyle name="Normal 4 3" xfId="51"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -2156,6 +2652,120 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Info"/>
+      <sheetName val="Macros"/>
+      <sheetName val="Development Inf"/>
+      <sheetName val="Screw Surface S"/>
+      <sheetName val="Recovery"/>
+      <sheetName val="Shear Graph"/>
+      <sheetName val="Solidification "/>
+      <sheetName val="Gate Seal"/>
+      <sheetName val="Capability % M"/>
+      <sheetName val="Capability % E"/>
+      <sheetName val="CD-실적"/>
+      <sheetName val="1. IQC"/>
+      <sheetName val="Purchase order"/>
+      <sheetName val="templt2"/>
+      <sheetName val="Development_Inf"/>
+      <sheetName val="Screw_Surface_S"/>
+      <sheetName val="Shear_Graph"/>
+      <sheetName val="Solidification_"/>
+      <sheetName val="Gate_Seal"/>
+      <sheetName val="Capability_%_M"/>
+      <sheetName val="Capability_%_E"/>
+      <sheetName val="1__IQC"/>
+      <sheetName val="냉연"/>
+      <sheetName val="Test Information"/>
+      <sheetName val="2.대외공문"/>
+      <sheetName val="CAUDIT"/>
+      <sheetName val="UKTemplate"/>
+      <sheetName val="ECDetail"/>
+      <sheetName val="ECHead"/>
+      <sheetName val="Sheet5 (2)"/>
+      <sheetName val="Data validation"/>
+      <sheetName val="진행 DATA (2)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Mục lục"/>
+      <sheetName val="1. Appearance DC "/>
+      <sheetName val="2. Dimension DC"/>
+      <sheetName val="4. Dimension CNC"/>
+      <sheetName val="4. Dimension CNC (2)"/>
+      <sheetName val="8. IM"/>
+      <sheetName val="3. Appearance NC"/>
+      <sheetName val="CTQ check sheet - MCT "/>
+      <sheetName val="5. Packing inspection"/>
+      <sheetName val="6. IG-DC"/>
+      <sheetName val="7. IG-CNC"/>
+      <sheetName val="10. Update history"/>
+      <sheetName val="9. Drawing"/>
+      <sheetName val="11.Defect history"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -2424,995 +3034,995 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.43809523809524" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.6666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.1047619047619" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.8857142857143" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.8857142857143" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.1047619047619" style="2" customWidth="1"/>
-    <col min="7" max="18" width="19.1047619047619" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="8.43809523809524" style="69" customWidth="1"/>
+    <col min="2" max="2" width="13.6666666666667" style="69" customWidth="1"/>
+    <col min="3" max="3" width="27.1047619047619" style="69" customWidth="1"/>
+    <col min="4" max="4" width="23.8857142857143" style="69" customWidth="1"/>
+    <col min="5" max="5" width="28.8857142857143" style="69" customWidth="1"/>
+    <col min="6" max="6" width="11.1047619047619" style="69" customWidth="1"/>
+    <col min="7" max="18" width="19.1047619047619" style="69" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="69"/>
   </cols>
   <sheetData>
     <row r="1" ht="44.25" customHeight="1" spans="1:18">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="66" t="s">
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="66" t="s">
+      <c r="L1" s="82"/>
+      <c r="M1" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="14" t="s">
+      <c r="N1" s="82"/>
+      <c r="O1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="14" t="s">
+      <c r="P1" s="82"/>
+      <c r="Q1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="15"/>
+      <c r="R1" s="82"/>
     </row>
     <row r="2" ht="44.25" customHeight="1" spans="1:18">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="78"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="142"/>
     </row>
     <row r="3" ht="44.25" customHeight="1" spans="1:18">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="80"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
     </row>
     <row r="4" ht="44.25" customHeight="1" spans="1:18">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="15"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="82"/>
     </row>
     <row r="5" ht="51.75" customHeight="1" spans="1:18">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
     </row>
     <row r="6" ht="51.75" customHeight="1" spans="1:18">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
     </row>
     <row r="7" ht="51.75" customHeight="1" spans="1:18">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
     </row>
     <row r="8" ht="51.75" customHeight="1" spans="1:18">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="19" t="s">
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="21"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="88"/>
     </row>
     <row r="9" ht="57.75" customHeight="1" spans="1:18">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
     </row>
     <row r="10" ht="57.75" customHeight="1" spans="1:18">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="22" t="s">
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22" t="s">
+      <c r="H10" s="89"/>
+      <c r="I10" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22" t="s">
+      <c r="J10" s="89"/>
+      <c r="K10" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22" t="s">
+      <c r="L10" s="89"/>
+      <c r="M10" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22" t="s">
+      <c r="N10" s="89"/>
+      <c r="O10" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22" t="s">
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="R10" s="22"/>
+      <c r="R10" s="89"/>
     </row>
     <row r="11" ht="57.75" customHeight="1" spans="1:18">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
     </row>
     <row r="12" ht="63" customHeight="1" spans="1:18">
-      <c r="A12" s="27">
+      <c r="A12" s="94">
         <v>1</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="81"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="145"/>
     </row>
     <row r="13" ht="63" customHeight="1" spans="1:18">
-      <c r="A13" s="32">
+      <c r="A13" s="99">
         <v>2</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="82"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="146"/>
     </row>
     <row r="14" ht="63" customHeight="1" spans="1:18">
-      <c r="A14" s="27">
+      <c r="A14" s="94">
         <v>3</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="82"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="146"/>
     </row>
     <row r="15" ht="63" customHeight="1" spans="1:18">
-      <c r="A15" s="32">
+      <c r="A15" s="99">
         <v>4</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="82"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="146"/>
     </row>
     <row r="16" ht="63" customHeight="1" spans="1:18">
-      <c r="A16" s="27">
+      <c r="A16" s="94">
         <v>5</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="82"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="146"/>
     </row>
     <row r="17" ht="63" customHeight="1" spans="1:18">
-      <c r="A17" s="32">
+      <c r="A17" s="99">
         <v>6</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="82"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="63" customHeight="1" spans="1:18">
-      <c r="A18" s="27">
+      <c r="B17" s="100"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="146"/>
+    </row>
+    <row r="18" s="68" customFormat="1" ht="63" customHeight="1" spans="1:18">
+      <c r="A18" s="94">
         <v>7</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="106"/>
     </row>
     <row r="19" ht="63" customHeight="1" spans="1:18">
-      <c r="A19" s="32">
+      <c r="A19" s="99">
         <v>8</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="82"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="103"/>
+      <c r="R19" s="146"/>
     </row>
     <row r="20" ht="63" customHeight="1" spans="1:18">
-      <c r="A20" s="27">
+      <c r="A20" s="94">
         <v>9</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="82"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="146"/>
     </row>
     <row r="21" ht="63" customHeight="1" spans="1:18">
-      <c r="A21" s="32">
+      <c r="A21" s="99">
         <v>10</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="82"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="146"/>
     </row>
     <row r="22" ht="63" customHeight="1" spans="1:18">
-      <c r="A22" s="27">
+      <c r="A22" s="94">
         <v>11</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="82"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="103"/>
+      <c r="O22" s="103"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="103"/>
+      <c r="R22" s="146"/>
     </row>
     <row r="23" ht="63" customHeight="1" spans="1:18">
-      <c r="A23" s="32">
+      <c r="A23" s="99">
         <v>12</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="82"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="103"/>
+      <c r="O23" s="103"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="103"/>
+      <c r="R23" s="146"/>
     </row>
     <row r="24" ht="63" customHeight="1" spans="1:18">
-      <c r="A24" s="27">
+      <c r="A24" s="94">
         <v>13</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="82"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="103"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="146"/>
     </row>
     <row r="25" ht="63" customHeight="1" spans="1:18">
-      <c r="A25" s="32">
+      <c r="A25" s="99">
         <v>14</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="82"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="103"/>
+      <c r="P25" s="103"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="146"/>
     </row>
     <row r="26" ht="63" customHeight="1" spans="1:18">
-      <c r="A26" s="27">
+      <c r="A26" s="94">
         <v>15</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="103"/>
     </row>
     <row r="27" ht="63" customHeight="1" spans="1:18">
-      <c r="A27" s="32">
+      <c r="A27" s="99">
         <v>16</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="103"/>
+      <c r="R27" s="103"/>
     </row>
     <row r="28" ht="63" customHeight="1" spans="1:18">
-      <c r="A28" s="27">
+      <c r="A28" s="94">
         <v>17</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="103"/>
+      <c r="Q28" s="103"/>
+      <c r="R28" s="103"/>
     </row>
     <row r="29" ht="63" customHeight="1" spans="1:18">
-      <c r="A29" s="32">
+      <c r="A29" s="99">
         <v>18</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
     </row>
     <row r="30" ht="63" customHeight="1" spans="1:18">
-      <c r="A30" s="27">
+      <c r="A30" s="94">
         <v>19</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="103"/>
     </row>
     <row r="31" ht="63" customHeight="1" spans="1:18">
-      <c r="A31" s="32">
+      <c r="A31" s="99">
         <v>20</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="103"/>
     </row>
     <row r="32" ht="63" customHeight="1" spans="1:18">
-      <c r="A32" s="27">
+      <c r="A32" s="94">
         <v>21</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="103"/>
     </row>
     <row r="33" ht="63" customHeight="1" spans="1:18">
-      <c r="A33" s="32">
+      <c r="A33" s="99">
         <v>22</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="103"/>
     </row>
     <row r="34" ht="63" customHeight="1" spans="1:18">
-      <c r="A34" s="27">
+      <c r="A34" s="94">
         <v>23</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
+      <c r="R34" s="103"/>
     </row>
     <row r="35" ht="63" customHeight="1" spans="1:18">
-      <c r="A35" s="32">
+      <c r="A35" s="99">
         <v>24</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="82"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="103"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="103"/>
+      <c r="P35" s="103"/>
+      <c r="Q35" s="103"/>
+      <c r="R35" s="146"/>
     </row>
     <row r="36" ht="63" customHeight="1" spans="1:18">
-      <c r="A36" s="27">
+      <c r="A36" s="94">
         <v>25</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="103"/>
+      <c r="R36" s="103"/>
     </row>
     <row r="37" ht="63" customHeight="1" spans="1:18">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="103"/>
+      <c r="L37" s="103"/>
+      <c r="M37" s="103"/>
+      <c r="N37" s="103"/>
+      <c r="O37" s="103"/>
+      <c r="P37" s="103"/>
+      <c r="Q37" s="103"/>
+      <c r="R37" s="103"/>
     </row>
     <row r="38" ht="63" customHeight="1" spans="1:18">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="54" t="s">
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="103"/>
+      <c r="K38" s="103"/>
+      <c r="L38" s="103"/>
+      <c r="M38" s="103"/>
+      <c r="N38" s="103"/>
+      <c r="O38" s="103"/>
+      <c r="P38" s="103"/>
+      <c r="Q38" s="103"/>
+      <c r="R38" s="103"/>
     </row>
     <row r="39" ht="63" customHeight="1" spans="1:18">
-      <c r="A39" s="56"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="59" t="s">
+      <c r="A39" s="122"/>
+      <c r="B39" s="123"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="60"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="123"/>
+      <c r="H39" s="124"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="103"/>
+      <c r="L39" s="103"/>
+      <c r="M39" s="103"/>
+      <c r="N39" s="103"/>
+      <c r="O39" s="103"/>
+      <c r="P39" s="103"/>
+      <c r="Q39" s="103"/>
+      <c r="R39" s="103"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="63" t="s">
+      <c r="A40" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="63"/>
-      <c r="M40" s="63"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="63"/>
-      <c r="R40" s="63"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="127"/>
+      <c r="K40" s="127"/>
+      <c r="L40" s="127"/>
+      <c r="M40" s="127"/>
+      <c r="N40" s="127"/>
+      <c r="O40" s="127"/>
+      <c r="P40" s="127"/>
+      <c r="Q40" s="127"/>
+      <c r="R40" s="127"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="65"/>
-      <c r="O41" s="65"/>
-      <c r="P41" s="65"/>
-      <c r="Q41" s="65"/>
-      <c r="R41" s="65"/>
+      <c r="A41" s="129"/>
+      <c r="B41" s="129"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="129"/>
+      <c r="G41" s="129"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="129"/>
+      <c r="J41" s="129"/>
+      <c r="K41" s="129"/>
+      <c r="L41" s="129"/>
+      <c r="M41" s="129"/>
+      <c r="N41" s="129"/>
+      <c r="O41" s="129"/>
+      <c r="P41" s="129"/>
+      <c r="Q41" s="129"/>
+      <c r="R41" s="129"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
+      <c r="B42" s="129"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="129"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="129"/>
+      <c r="G42" s="129"/>
+      <c r="H42" s="129"/>
+      <c r="I42" s="129"/>
+      <c r="J42" s="129"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
+      <c r="B43" s="129"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="129"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="129"/>
     </row>
     <row r="44" ht="23.25" spans="2:10">
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="76"/>
+      <c r="B44" s="129"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="129"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="129"/>
+      <c r="G44" s="129"/>
+      <c r="H44" s="129"/>
+      <c r="I44" s="129"/>
+      <c r="J44" s="140"/>
     </row>
     <row r="45" ht="23.25" spans="2:10">
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="76"/>
+      <c r="B45" s="129"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="129"/>
+      <c r="G45" s="129"/>
+      <c r="H45" s="129"/>
+      <c r="I45" s="129"/>
+      <c r="J45" s="140"/>
     </row>
     <row r="64" ht="42" customHeight="1"/>
   </sheetData>
@@ -3641,4 +4251,1899 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T83"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScalePageLayoutView="55" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="11" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="5.43809523809524" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.1047619047619" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.4380952380952" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.6666666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.6666666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3" customWidth="1"/>
+    <col min="7" max="18" width="19.6666666666667" style="3" customWidth="1"/>
+    <col min="19" max="20" width="7.1047619047619" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="4"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+    </row>
+    <row r="2" ht="8.25" customHeight="1" spans="1:20">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" ht="19.5" customHeight="1" spans="1:20">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" ht="19.5" customHeight="1" spans="1:20">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" ht="27.75" customHeight="1" spans="1:20">
+      <c r="A5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+    </row>
+    <row r="6" ht="27.75" customHeight="1" spans="1:20">
+      <c r="A6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+    </row>
+    <row r="7" ht="27.75" customHeight="1" spans="1:20">
+      <c r="A7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" ht="19.5" customHeight="1" spans="1:20">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" ht="21" customHeight="1" spans="1:20">
+      <c r="A9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" ht="21" customHeight="1" spans="1:20">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:20">
+      <c r="A11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" ht="42.75" customHeight="1" spans="1:20">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="44"/>
+    </row>
+    <row r="13" ht="42.75" customHeight="1" spans="1:20">
+      <c r="A13" s="19"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="44"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="42.75" customHeight="1" spans="1:20">
+      <c r="A14" s="19"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="44"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="42.75" customHeight="1" spans="1:20">
+      <c r="A15" s="19"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="44"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="42.75" customHeight="1" spans="1:20">
+      <c r="A16" s="19"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="44"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="42.75" customHeight="1" spans="1:20">
+      <c r="A17" s="19"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="44"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="42.75" customHeight="1" spans="1:20">
+      <c r="A18" s="19"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="47"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="42.75" customHeight="1" spans="1:20">
+      <c r="A19" s="19"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="47"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="42.75" customHeight="1" spans="1:20">
+      <c r="A20" s="19"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="47"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="42.75" customHeight="1" spans="1:20">
+      <c r="A21" s="19"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="47"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="30.75" customHeight="1" spans="1:20">
+      <c r="A22" s="19"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="47"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="27.75" customHeight="1" spans="1:20">
+      <c r="A23" s="19"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="47"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="28.5" customHeight="1" spans="1:20">
+      <c r="A24" s="19"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="47"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="40.5" customHeight="1" spans="1:20">
+      <c r="A25" s="19"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="T25" s="47"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="40.5" customHeight="1" spans="1:20">
+      <c r="A26" s="19"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="49"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:20">
+      <c r="A27" s="28"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="51"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:20">
+      <c r="A28" s="29"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="53"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="29.25" customHeight="1" spans="1:20">
+      <c r="A29" s="30"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="55"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="42" customHeight="1" spans="1:20">
+      <c r="A30" s="31"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="T30" s="47"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="42" customHeight="1" spans="1:20">
+      <c r="A31" s="32"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="49"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="42" customHeight="1" spans="1:20">
+      <c r="A32" s="33"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="57"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="30.75" customHeight="1" spans="1:20">
+      <c r="A33" s="5"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="58"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:20">
+      <c r="A34" s="5"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="27.75" customHeight="1" spans="1:20">
+      <c r="A35" s="5"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A36" s="4"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T36" s="5"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A37" s="4"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T37" s="5"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A38" s="4"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T38" s="5"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A39" s="4"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T39" s="5"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A40" s="37"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T40" s="5"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A41" s="38"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A42" s="38"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A43" s="7"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A44" s="4"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T44" s="5"/>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A45" s="4"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="45"/>
+      <c r="S45" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T45" s="5"/>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A46" s="4"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="45"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A47" s="4"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="45"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A48" s="4"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A49" s="4"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A50" s="4"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="58"/>
+      <c r="T50" s="58"/>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A51" s="4"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="45"/>
+      <c r="S51" s="58"/>
+      <c r="T51" s="58"/>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A52" s="37"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="45"/>
+      <c r="S52" s="58"/>
+      <c r="T52" s="58"/>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A53" s="7"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="45"/>
+      <c r="S53" s="58"/>
+      <c r="T53" s="58"/>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A54" s="4"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="45"/>
+      <c r="S54" s="58"/>
+      <c r="T54" s="58"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A55" s="40"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="45"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A56" s="41"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A57" s="41"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A58" s="40"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+    </row>
+    <row r="59" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A59" s="41"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+    </row>
+    <row r="60" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A60" s="41"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A61" s="4"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A62" s="4"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A63" s="4"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+    </row>
+    <row r="64" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A64" s="37"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A65" s="38"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A66" s="38"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A67" s="38"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+    </row>
+    <row r="68" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A68" s="38"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+    </row>
+    <row r="69" s="1" customFormat="1" ht="43.5" customHeight="1" spans="1:20">
+      <c r="A69" s="7"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+    </row>
+    <row r="70" s="1" customFormat="1" ht="39.75" customHeight="1" spans="1:20">
+      <c r="A70" s="37"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="64"/>
+      <c r="T70" s="65"/>
+    </row>
+    <row r="71" s="1" customFormat="1" ht="39.75" customHeight="1" spans="1:20">
+      <c r="A71" s="38"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="64"/>
+      <c r="T71" s="65"/>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="39.75" customHeight="1" spans="1:20">
+      <c r="A72" s="38"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="64"/>
+      <c r="T72" s="65"/>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="39.75" customHeight="1" spans="1:20">
+      <c r="A73" s="37"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="64"/>
+      <c r="T73" s="65"/>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="39.75" customHeight="1" spans="1:20">
+      <c r="A74" s="38"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="64"/>
+      <c r="T74" s="65"/>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="39.75" customHeight="1" spans="1:20">
+      <c r="A75" s="38"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="64"/>
+      <c r="T75" s="65"/>
+    </row>
+    <row r="76" s="1" customFormat="1" ht="28.5" customHeight="1" spans="1:20">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="66"/>
+      <c r="T76" s="66"/>
+    </row>
+    <row r="77" s="1" customFormat="1" ht="27.75" customHeight="1" spans="1:20">
+      <c r="A77" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="67"/>
+      <c r="T77" s="67"/>
+    </row>
+    <row r="78" ht="36.75" customHeight="1"/>
+    <row r="79" ht="35.25" customHeight="1"/>
+    <row r="80" ht="35.25" customHeight="1"/>
+    <row r="81" ht="35.25" customHeight="1"/>
+    <row r="82" ht="15" customHeight="1"/>
+    <row r="83" ht="15" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="71">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="A5:T5"/>
+    <mergeCell ref="A6:T6"/>
+    <mergeCell ref="A7:T7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:T8"/>
+    <mergeCell ref="G9:R9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="Q76:R76"/>
+    <mergeCell ref="S76:T76"/>
+    <mergeCell ref="A77:R77"/>
+    <mergeCell ref="S77:T77"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A26"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F14:F21"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F34:F69"/>
+    <mergeCell ref="F70:F75"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:J2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:T3"/>
+    <mergeCell ref="S9:T11"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="30" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;18HEV-QA-010-02.01</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>